--- a/data/trans_orig/P6712-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC0361F-9CE7-4FE8-83D8-6C28FF8EB6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07FE3BF-BA44-46BC-AD17-F67532BB7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3E0803-D7AD-448A-80FE-B956EA7EA2A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B52D46-A1BD-49AC-8DE7-763B4E84E78B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="714">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -93,2119 +93,2092 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEC432E-B89F-4CA2-8C49-0FEA4DAAF0A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67460814-9BC7-4B82-A0F4-25A318049A1E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3342,7 +3315,7 @@
         <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3351,13 +3324,13 @@
         <v>2991</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3345,13 @@
         <v>916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3387,13 +3360,13 @@
         <v>3941</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3402,13 +3375,13 @@
         <v>4857</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3396,13 @@
         <v>24680</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3438,13 +3411,13 @@
         <v>14828</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3453,13 +3426,13 @@
         <v>39508</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3447,13 @@
         <v>41864</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3489,13 +3462,13 @@
         <v>14659</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -3504,13 +3477,13 @@
         <v>56523</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3498,13 @@
         <v>72750</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -3540,13 +3513,13 @@
         <v>47895</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3555,13 +3528,13 @@
         <v>120645</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3590,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3629,13 +3602,13 @@
         <v>17761</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3644,13 +3617,13 @@
         <v>11408</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3659,13 +3632,13 @@
         <v>29169</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3653,13 @@
         <v>14506</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3695,13 +3668,13 @@
         <v>5038</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3710,13 +3683,13 @@
         <v>19544</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3704,13 @@
         <v>38849</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -3746,13 +3719,13 @@
         <v>33727</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -3761,13 +3734,13 @@
         <v>72576</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3755,13 @@
         <v>40386</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3797,13 +3770,13 @@
         <v>40521</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3812,13 +3785,13 @@
         <v>80907</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3806,13 @@
         <v>157116</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3848,13 +3821,13 @@
         <v>98035</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
@@ -3863,13 +3836,13 @@
         <v>255151</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3898,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3937,13 +3910,13 @@
         <v>2166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3952,13 +3925,13 @@
         <v>8745</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3967,10 +3940,10 @@
         <v>10910</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>160</v>
@@ -4123,10 +4096,10 @@
         <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4114,13 @@
         <v>34125</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -4156,13 +4129,13 @@
         <v>16830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -4171,13 +4144,13 @@
         <v>50955</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,7 +4206,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4251,7 +4224,7 @@
         <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4260,13 +4233,13 @@
         <v>2114</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4275,13 +4248,13 @@
         <v>2114</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4269,13 @@
         <v>4916</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4311,13 +4284,13 @@
         <v>2056</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4326,13 +4299,13 @@
         <v>6972</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4320,13 @@
         <v>22822</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4362,13 +4335,13 @@
         <v>11268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -4377,13 +4350,13 @@
         <v>34090</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4371,13 @@
         <v>22797</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -4413,13 +4386,13 @@
         <v>11595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -4428,13 +4401,13 @@
         <v>34392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4422,13 @@
         <v>66677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -4464,13 +4437,13 @@
         <v>28260</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M38" s="7">
         <v>86</v>
@@ -4479,13 +4452,13 @@
         <v>94937</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4514,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4553,13 +4526,13 @@
         <v>10496</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4568,13 +4541,13 @@
         <v>5090</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -4583,13 +4556,13 @@
         <v>15586</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4577,13 @@
         <v>11421</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -4619,13 +4592,13 @@
         <v>8381</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>18</v>
@@ -4634,13 +4607,13 @@
         <v>19802</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4628,13 @@
         <v>41711</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -4670,13 +4643,13 @@
         <v>29005</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -4685,13 +4658,13 @@
         <v>70717</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4679,13 @@
         <v>53871</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H43" s="7">
         <v>38</v>
@@ -4721,13 +4694,13 @@
         <v>40742</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4736,13 +4709,13 @@
         <v>94613</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4730,13 @@
         <v>153557</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
         <v>93</v>
@@ -4772,13 +4745,13 @@
         <v>97897</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M44" s="7">
         <v>231</v>
@@ -4787,13 +4760,13 @@
         <v>251455</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4822,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4861,13 +4834,13 @@
         <v>13477</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -4876,13 +4849,13 @@
         <v>8592</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4891,13 +4864,13 @@
         <v>22068</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4885,13 @@
         <v>16135</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -4927,13 +4900,13 @@
         <v>8542</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -4942,13 +4915,13 @@
         <v>24676</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4936,13 @@
         <v>58039</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4978,13 +4951,13 @@
         <v>53272</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M48" s="7">
         <v>102</v>
@@ -4993,13 +4966,13 @@
         <v>111311</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +4987,13 @@
         <v>141444</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H49" s="7">
         <v>91</v>
@@ -5029,13 +5002,13 @@
         <v>101138</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M49" s="7">
         <v>223</v>
@@ -5044,13 +5017,13 @@
         <v>242581</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5038,13 @@
         <v>132089</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H50" s="7">
         <v>81</v>
@@ -5080,13 +5053,13 @@
         <v>88033</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M50" s="7">
         <v>203</v>
@@ -5095,13 +5068,13 @@
         <v>220121</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5142,13 @@
         <v>59544</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H52" s="7">
         <v>40</v>
@@ -5184,13 +5157,13 @@
         <v>42872</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M52" s="7">
         <v>97</v>
@@ -5199,13 +5172,13 @@
         <v>102416</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5193,13 @@
         <v>66341</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>335</v>
+        <v>28</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -5235,13 +5208,13 @@
         <v>39618</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="M53" s="7">
         <v>96</v>
@@ -5250,13 +5223,13 @@
         <v>105959</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5244,13 @@
         <v>223367</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H54" s="7">
         <v>150</v>
@@ -5286,13 +5259,13 @@
         <v>163052</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M54" s="7">
         <v>360</v>
@@ -5301,13 +5274,13 @@
         <v>386419</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>93</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5295,13 @@
         <v>334092</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>350</v>
+        <v>182</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H55" s="7">
         <v>223</v>
@@ -5337,28 +5310,28 @@
         <v>243796</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M55" s="7">
         <v>547</v>
       </c>
       <c r="N55" s="7">
-        <v>577888</v>
+        <v>577887</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5346,13 @@
         <v>732481</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H56" s="7">
         <v>421</v>
@@ -5388,13 +5361,13 @@
         <v>452182</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M56" s="7">
         <v>1099</v>
@@ -5403,13 +5376,13 @@
         <v>1184663</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,7 +5424,7 @@
         <v>2199</v>
       </c>
       <c r="N57" s="7">
-        <v>2357345</v>
+        <v>2357344</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>62</v>
@@ -5465,7 +5438,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F756C1-E7EA-4B8F-B6C3-95F9D7FF3B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102D63F5-CFF1-43B1-894B-0773C96DC8F0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5506,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5613,13 +5586,13 @@
         <v>15394</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5628,13 +5601,13 @@
         <v>10627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5643,13 +5616,13 @@
         <v>26021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5637,13 @@
         <v>19543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5679,13 +5652,13 @@
         <v>10535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -5694,13 +5667,13 @@
         <v>30078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5688,13 @@
         <v>22985</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5730,13 +5703,13 @@
         <v>14491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5745,13 +5718,13 @@
         <v>37477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5739,13 @@
         <v>19851</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5784,10 +5757,10 @@
         <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5796,13 +5769,13 @@
         <v>31617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5790,13 @@
         <v>58392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -5832,13 +5805,13 @@
         <v>53556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5847,13 +5820,13 @@
         <v>111948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5894,13 @@
         <v>12982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -5936,13 +5909,13 @@
         <v>16600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5951,13 +5924,13 @@
         <v>29582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5945,13 @@
         <v>14682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5987,13 +5960,13 @@
         <v>12417</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -6002,13 +5975,13 @@
         <v>27099</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>422</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +5996,13 @@
         <v>36248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -6038,13 +6011,13 @@
         <v>19337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -6053,13 +6026,13 @@
         <v>55584</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6047,13 @@
         <v>42504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6089,13 +6062,13 @@
         <v>19022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -6104,13 +6077,13 @@
         <v>61525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6098,13 @@
         <v>63882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6140,13 +6113,13 @@
         <v>46305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -6155,13 +6128,13 @@
         <v>110187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6202,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6244,13 +6217,13 @@
         <v>2743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6259,13 +6232,13 @@
         <v>6120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6253,13 @@
         <v>5635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6295,13 +6268,13 @@
         <v>3833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6310,13 +6283,13 @@
         <v>9468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6304,13 @@
         <v>27946</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6346,13 +6319,13 @@
         <v>21223</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -6361,13 +6334,13 @@
         <v>49168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6355,13 @@
         <v>47064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -6397,13 +6370,13 @@
         <v>37720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -6412,13 +6385,13 @@
         <v>84785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6406,13 @@
         <v>42362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -6448,13 +6421,13 @@
         <v>18814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -6463,13 +6436,13 @@
         <v>61176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,7 +6498,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6537,13 +6510,13 @@
         <v>3830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6552,13 +6525,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -6567,13 +6540,13 @@
         <v>10439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6561,13 @@
         <v>8289</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6603,13 +6576,13 @@
         <v>2860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -6618,13 +6591,13 @@
         <v>11149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6612,13 @@
         <v>8393</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6654,13 +6627,13 @@
         <v>9651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>223</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6669,13 +6642,13 @@
         <v>18044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6663,13 @@
         <v>12873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6705,13 +6678,13 @@
         <v>12206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6720,13 +6693,13 @@
         <v>25079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6714,13 @@
         <v>78796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>60</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -6756,13 +6729,13 @@
         <v>50532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -6771,13 +6744,13 @@
         <v>129328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +6806,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6845,13 +6818,13 @@
         <v>3112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6860,13 +6833,13 @@
         <v>1749</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6875,13 +6848,13 @@
         <v>4861</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>533</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>411</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6869,13 @@
         <v>5467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6911,13 +6884,13 @@
         <v>5352</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6926,13 +6899,13 @@
         <v>10819</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6920,13 @@
         <v>24068</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -6962,13 +6935,13 @@
         <v>18013</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6977,13 +6950,13 @@
         <v>42081</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6971,13 @@
         <v>36326</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7013,13 +6986,13 @@
         <v>19699</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>554</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M31" s="7">
         <v>57</v>
@@ -7028,13 +7001,13 @@
         <v>56025</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>558</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7022,13 @@
         <v>11957</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -7064,13 +7037,13 @@
         <v>10604</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -7079,13 +7052,13 @@
         <v>22561</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7114,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7153,13 +7126,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7168,13 +7141,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>569</v>
+        <v>20</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7183,13 +7156,13 @@
         <v>1884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>571</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7177,13 @@
         <v>14243</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>451</v>
+        <v>569</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -7219,13 +7192,13 @@
         <v>17629</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M35" s="7">
         <v>32</v>
@@ -7234,13 +7207,13 @@
         <v>31872</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>578</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7228,13 @@
         <v>29563</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7270,13 +7243,13 @@
         <v>21806</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -7285,13 +7258,13 @@
         <v>51369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>586</v>
+        <v>389</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7279,13 @@
         <v>32532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -7321,13 +7294,13 @@
         <v>23649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7336,13 +7309,13 @@
         <v>56181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7330,13 @@
         <v>30154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7372,13 +7345,13 @@
         <v>11611</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>177</v>
+        <v>595</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>600</v>
+        <v>407</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M38" s="7">
         <v>40</v>
@@ -7387,13 +7360,13 @@
         <v>41765</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7422,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7461,13 +7434,13 @@
         <v>26297</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>28</v>
+        <v>565</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -7476,13 +7449,13 @@
         <v>14733</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -7491,13 +7464,13 @@
         <v>41031</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>610</v>
+        <v>452</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,13 +7485,13 @@
         <v>42633</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -7527,13 +7500,13 @@
         <v>39321</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>160</v>
+        <v>609</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M41" s="7">
         <v>78</v>
@@ -7542,13 +7515,13 @@
         <v>81954</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7536,13 @@
         <v>103307</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H42" s="7">
         <v>74</v>
@@ -7578,13 +7551,13 @@
         <v>74225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M42" s="7">
         <v>161</v>
@@ -7593,13 +7566,13 @@
         <v>177532</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7587,13 @@
         <v>68009</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>391</v>
+        <v>625</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>630</v>
+        <v>408</v>
       </c>
       <c r="H43" s="7">
         <v>63</v>
@@ -7629,13 +7602,13 @@
         <v>68986</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M43" s="7">
         <v>124</v>
@@ -7644,13 +7617,13 @@
         <v>136995</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7638,13 @@
         <v>119680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -7680,13 +7653,13 @@
         <v>87600</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
@@ -7695,13 +7668,13 @@
         <v>207280</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,7 +7730,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7769,13 +7742,13 @@
         <v>2146</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>646</v>
+        <v>65</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7784,13 +7757,13 @@
         <v>3865</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>648</v>
+        <v>201</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>650</v>
+        <v>404</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7799,13 +7772,13 @@
         <v>6010</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>243</v>
+        <v>643</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7793,13 @@
         <v>13233</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -7835,13 +7808,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="M47" s="7">
         <v>23</v>
@@ -7850,13 +7823,13 @@
         <v>23014</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7844,13 @@
         <v>54889</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>662</v>
+        <v>266</v>
       </c>
       <c r="H48" s="7">
         <v>50</v>
@@ -7886,13 +7859,13 @@
         <v>52105</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>663</v>
+        <v>431</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="M48" s="7">
         <v>103</v>
@@ -7901,13 +7874,13 @@
         <v>106994</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>666</v>
+        <v>370</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,13 +7895,13 @@
         <v>133202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="H49" s="7">
         <v>85</v>
@@ -7937,13 +7910,13 @@
         <v>85816</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>100</v>
+        <v>662</v>
       </c>
       <c r="M49" s="7">
         <v>213</v>
@@ -7952,13 +7925,13 @@
         <v>219017</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,13 +7946,13 @@
         <v>125467</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H50" s="7">
         <v>82</v>
@@ -7988,13 +7961,13 @@
         <v>88905</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M50" s="7">
         <v>201</v>
@@ -8003,13 +7976,13 @@
         <v>214372</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8050,13 @@
         <v>68148</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>686</v>
+        <v>281</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -8092,13 +8065,13 @@
         <v>57800</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>687</v>
+        <v>334</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>332</v>
+        <v>677</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="M52" s="7">
         <v>117</v>
@@ -8107,13 +8080,13 @@
         <v>125948</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8101,13 @@
         <v>123726</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>605</v>
+        <v>289</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="H53" s="7">
         <v>103</v>
@@ -8143,13 +8116,13 @@
         <v>101727</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>696</v>
+        <v>606</v>
       </c>
       <c r="M53" s="7">
         <v>218</v>
@@ -8158,13 +8131,13 @@
         <v>225454</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>697</v>
+        <v>491</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>114</v>
+        <v>687</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8152,13 @@
         <v>307397</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>378</v>
+        <v>688</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -8194,13 +8167,13 @@
         <v>230852</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="M54" s="7">
         <v>514</v>
@@ -8209,13 +8182,13 @@
         <v>538249</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>703</v>
+        <v>584</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>170</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,13 +8203,13 @@
         <v>392361</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H55" s="7">
         <v>273</v>
@@ -8245,13 +8218,13 @@
         <v>278864</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8260,13 +8233,13 @@
         <v>671225</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8254,13 @@
         <v>530689</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="H56" s="7">
         <v>350</v>
@@ -8296,13 +8269,13 @@
         <v>367929</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="M56" s="7">
         <v>840</v>
@@ -8311,13 +8284,13 @@
         <v>898618</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,7 +8346,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07FE3BF-BA44-46BC-AD17-F67532BB7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A746C24-24CF-4F94-B268-42B785F5D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B52D46-A1BD-49AC-8DE7-763B4E84E78B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6145FA5A-1A46-4BC7-92E7-717DC3760FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="722">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -93,2092 +93,2116 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67460814-9BC7-4B82-A0F4-25A318049A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ED650-EFA5-4067-8DA3-22F94A5E7BB2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3315,7 +3339,7 @@
         <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3324,13 +3348,13 @@
         <v>2991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3369,13 @@
         <v>916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3360,13 +3384,13 @@
         <v>3941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3375,13 +3399,13 @@
         <v>4857</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3420,13 @@
         <v>24680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3411,13 +3435,13 @@
         <v>14828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3426,13 +3450,13 @@
         <v>39508</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3471,13 @@
         <v>41864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3462,13 +3486,13 @@
         <v>14659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -3477,13 +3501,13 @@
         <v>56523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3522,13 @@
         <v>72750</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -3513,13 +3537,13 @@
         <v>47895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3528,13 +3552,13 @@
         <v>120645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3614,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3602,13 +3626,13 @@
         <v>17761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3617,13 +3641,13 @@
         <v>11408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3632,13 +3656,13 @@
         <v>29169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3677,13 @@
         <v>14506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3668,13 +3692,13 @@
         <v>5038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3683,13 +3707,13 @@
         <v>19544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3728,13 @@
         <v>38849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -3719,13 +3743,13 @@
         <v>33727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -3734,13 +3758,13 @@
         <v>72576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3779,13 @@
         <v>40386</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3770,13 +3794,13 @@
         <v>40521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3785,10 +3809,10 @@
         <v>80907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>142</v>
@@ -4096,10 +4120,10 @@
         <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4138,13 @@
         <v>34125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -4129,13 +4153,13 @@
         <v>16830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -4144,13 +4168,13 @@
         <v>50955</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4230,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4224,7 +4248,7 @@
         <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4233,13 +4257,13 @@
         <v>2114</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4248,13 +4272,13 @@
         <v>2114</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4293,13 @@
         <v>4916</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4284,13 +4308,13 @@
         <v>2056</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4299,13 +4323,13 @@
         <v>6972</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4344,13 @@
         <v>22822</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4335,13 +4359,13 @@
         <v>11268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -4350,13 +4374,13 @@
         <v>34090</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4395,13 @@
         <v>22797</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -4386,13 +4410,13 @@
         <v>11595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -4401,13 +4425,13 @@
         <v>34392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4446,13 @@
         <v>66677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -4437,13 +4461,13 @@
         <v>28260</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>86</v>
@@ -4452,13 +4476,13 @@
         <v>94937</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4538,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4526,13 +4550,13 @@
         <v>10496</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4541,13 +4565,13 @@
         <v>5090</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -4556,13 +4580,13 @@
         <v>15586</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4601,13 @@
         <v>11421</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -4592,13 +4616,13 @@
         <v>8381</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>18</v>
@@ -4607,13 +4631,13 @@
         <v>19802</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4652,13 @@
         <v>41711</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -4643,13 +4667,13 @@
         <v>29005</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -4658,13 +4682,13 @@
         <v>70717</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4703,13 @@
         <v>53871</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H43" s="7">
         <v>38</v>
@@ -4694,13 +4718,13 @@
         <v>40742</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4709,13 +4733,13 @@
         <v>94613</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4754,13 @@
         <v>153557</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H44" s="7">
         <v>93</v>
@@ -4745,13 +4769,13 @@
         <v>97897</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>231</v>
@@ -4760,13 +4784,13 @@
         <v>251455</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4846,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4834,13 +4858,13 @@
         <v>13477</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -4849,13 +4873,13 @@
         <v>8592</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4864,13 +4888,13 @@
         <v>22068</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4909,13 @@
         <v>16135</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -4900,13 +4924,13 @@
         <v>8542</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -4915,13 +4939,13 @@
         <v>24676</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4960,13 @@
         <v>58039</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4951,13 +4975,13 @@
         <v>53272</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M48" s="7">
         <v>102</v>
@@ -4966,13 +4990,13 @@
         <v>111311</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5011,13 @@
         <v>141444</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H49" s="7">
         <v>91</v>
@@ -5002,13 +5026,13 @@
         <v>101138</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M49" s="7">
         <v>223</v>
@@ -5017,13 +5041,13 @@
         <v>242581</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5062,13 @@
         <v>132089</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H50" s="7">
         <v>81</v>
@@ -5053,13 +5077,13 @@
         <v>88033</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M50" s="7">
         <v>203</v>
@@ -5068,13 +5092,13 @@
         <v>220121</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5166,13 @@
         <v>59544</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H52" s="7">
         <v>40</v>
@@ -5157,13 +5181,13 @@
         <v>42872</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M52" s="7">
         <v>97</v>
@@ -5172,13 +5196,13 @@
         <v>102416</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5217,13 @@
         <v>66341</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -5208,13 +5232,13 @@
         <v>39618</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="M53" s="7">
         <v>96</v>
@@ -5223,13 +5247,13 @@
         <v>105959</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5268,13 @@
         <v>223367</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="H54" s="7">
         <v>150</v>
@@ -5259,13 +5283,13 @@
         <v>163052</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>360</v>
@@ -5274,13 +5298,13 @@
         <v>386419</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5319,13 @@
         <v>334092</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H55" s="7">
         <v>223</v>
@@ -5310,13 +5334,13 @@
         <v>243796</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M55" s="7">
         <v>547</v>
@@ -5325,13 +5349,13 @@
         <v>577887</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5370,13 @@
         <v>732481</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H56" s="7">
         <v>421</v>
@@ -5361,13 +5385,13 @@
         <v>452182</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>1099</v>
@@ -5376,13 +5400,13 @@
         <v>1184663</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5462,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +5486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102D63F5-CFF1-43B1-894B-0773C96DC8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5E4825-2F84-4AC4-8DEE-E878CBE8F678}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5479,7 +5503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5586,13 +5610,13 @@
         <v>15394</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5601,13 +5625,13 @@
         <v>10627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5616,13 +5640,13 @@
         <v>26021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5661,13 @@
         <v>19543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5652,13 +5676,13 @@
         <v>10535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -5667,13 +5691,13 @@
         <v>30078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5712,13 @@
         <v>22985</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5703,13 +5727,13 @@
         <v>14491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5718,13 +5742,13 @@
         <v>37477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5763,13 @@
         <v>19851</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5757,10 +5781,10 @@
         <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5769,13 +5793,13 @@
         <v>31617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5814,13 @@
         <v>58392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -5805,13 +5829,13 @@
         <v>53556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5820,13 +5844,13 @@
         <v>111948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5918,13 @@
         <v>12982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -5909,13 +5933,13 @@
         <v>16600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5924,13 +5948,13 @@
         <v>29582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5969,13 @@
         <v>14682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5960,13 +5984,13 @@
         <v>12417</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5975,13 +5999,13 @@
         <v>27099</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6020,13 @@
         <v>36248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -6011,13 +6035,13 @@
         <v>19337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -6026,13 +6050,13 @@
         <v>55584</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6071,13 @@
         <v>42504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6062,13 +6086,13 @@
         <v>19022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -6077,13 +6101,13 @@
         <v>61525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6122,13 @@
         <v>63882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6113,13 +6137,13 @@
         <v>46305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -6128,13 +6152,13 @@
         <v>110187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6226,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6217,13 +6241,13 @@
         <v>2743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6232,13 +6256,13 @@
         <v>6120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6277,13 @@
         <v>5635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6268,13 +6292,13 @@
         <v>3833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6283,13 +6307,13 @@
         <v>9468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6328,13 @@
         <v>27946</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6319,13 +6343,13 @@
         <v>21223</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -6334,13 +6358,13 @@
         <v>49168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6379,13 @@
         <v>47064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -6370,13 +6394,13 @@
         <v>37720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -6385,13 +6409,13 @@
         <v>84785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6430,13 @@
         <v>42362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -6421,13 +6445,13 @@
         <v>18814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -6436,13 +6460,13 @@
         <v>61176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6522,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6510,13 +6534,13 @@
         <v>3830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6525,13 +6549,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -6540,13 +6564,13 @@
         <v>10439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6585,13 @@
         <v>8289</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6576,13 +6600,13 @@
         <v>2860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -6591,13 +6615,13 @@
         <v>11149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6636,13 @@
         <v>8393</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>244</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6627,13 +6651,13 @@
         <v>9651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>223</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6642,13 +6666,13 @@
         <v>18044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6687,13 @@
         <v>12873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6678,13 +6702,13 @@
         <v>12206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6693,13 +6717,13 @@
         <v>25079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6738,13 @@
         <v>78796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -6729,13 +6753,13 @@
         <v>50532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -6744,13 +6768,13 @@
         <v>129328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6842,13 @@
         <v>3112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>524</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>525</v>
+        <v>33</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>526</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6833,13 +6857,13 @@
         <v>1749</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6851,10 +6875,10 @@
         <v>529</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>530</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,10 +6893,10 @@
         <v>5467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>532</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>533</v>
@@ -6887,10 +6911,10 @@
         <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6899,13 +6923,13 @@
         <v>10819</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6944,13 @@
         <v>24068</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -6935,10 +6959,10 @@
         <v>18013</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>544</v>
@@ -6989,10 +7013,10 @@
         <v>551</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>347</v>
+        <v>552</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M31" s="7">
         <v>57</v>
@@ -7001,13 +7025,13 @@
         <v>56025</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>352</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7046,13 @@
         <v>11957</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -7037,13 +7061,13 @@
         <v>10604</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -7052,13 +7076,13 @@
         <v>22561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,7 +7138,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7126,13 +7150,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7141,13 +7165,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>20</v>
+        <v>568</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7156,13 +7180,13 @@
         <v>1884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7201,13 @@
         <v>14243</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>570</v>
+        <v>303</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -7192,13 +7216,13 @@
         <v>17629</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M35" s="7">
         <v>32</v>
@@ -7207,13 +7231,13 @@
         <v>31872</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>169</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7252,13 @@
         <v>29563</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>576</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7243,13 +7267,13 @@
         <v>21806</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -7258,13 +7282,13 @@
         <v>51369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7303,13 @@
         <v>32532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>584</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -7294,13 +7318,13 @@
         <v>23649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7309,13 +7333,13 @@
         <v>56181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7354,13 @@
         <v>30154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7345,13 +7369,13 @@
         <v>11611</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>407</v>
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M38" s="7">
         <v>40</v>
@@ -7360,13 +7384,13 @@
         <v>41765</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,7 +7446,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7434,13 +7458,13 @@
         <v>26297</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -7449,13 +7473,13 @@
         <v>14733</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -7464,13 +7488,13 @@
         <v>41031</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>452</v>
+        <v>609</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>605</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>412</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7509,13 @@
         <v>42633</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>607</v>
+        <v>377</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -7500,13 +7524,13 @@
         <v>39321</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M41" s="7">
         <v>78</v>
@@ -7515,13 +7539,13 @@
         <v>81954</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7560,13 @@
         <v>103307</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H42" s="7">
         <v>74</v>
@@ -7551,13 +7575,13 @@
         <v>74225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="M42" s="7">
         <v>161</v>
@@ -7566,13 +7590,13 @@
         <v>177532</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7611,13 @@
         <v>68009</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="H43" s="7">
         <v>63</v>
@@ -7602,13 +7626,13 @@
         <v>68986</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="M43" s="7">
         <v>124</v>
@@ -7617,13 +7641,13 @@
         <v>136995</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7662,13 @@
         <v>119680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -7653,13 +7677,13 @@
         <v>87600</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
@@ -7668,13 +7692,13 @@
         <v>207280</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,7 +7754,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7742,13 +7766,13 @@
         <v>2146</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>65</v>
+        <v>645</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7757,13 +7781,13 @@
         <v>3865</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>201</v>
+        <v>647</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7772,13 +7796,13 @@
         <v>6010</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7817,13 @@
         <v>13233</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>646</v>
+        <v>72</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -7808,13 +7832,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M47" s="7">
         <v>23</v>
@@ -7823,13 +7847,13 @@
         <v>23014</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>651</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7868,13 @@
         <v>54889</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>266</v>
+        <v>660</v>
       </c>
       <c r="H48" s="7">
         <v>50</v>
@@ -7859,13 +7883,13 @@
         <v>52105</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>431</v>
+        <v>661</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M48" s="7">
         <v>103</v>
@@ -7874,13 +7898,13 @@
         <v>106994</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7919,13 @@
         <v>133202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="H49" s="7">
         <v>85</v>
@@ -7910,13 +7934,13 @@
         <v>85816</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M49" s="7">
         <v>213</v>
@@ -7925,13 +7949,13 @@
         <v>219017</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7970,13 @@
         <v>125467</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="H50" s="7">
         <v>82</v>
@@ -7961,13 +7985,13 @@
         <v>88905</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="M50" s="7">
         <v>201</v>
@@ -7976,13 +8000,13 @@
         <v>214372</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>673</v>
+        <v>224</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8074,13 @@
         <v>68148</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>281</v>
+        <v>684</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -8065,13 +8089,13 @@
         <v>57800</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>334</v>
+        <v>685</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="M52" s="7">
         <v>117</v>
@@ -8080,13 +8104,13 @@
         <v>125948</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>681</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8125,13 @@
         <v>123726</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>682</v>
+        <v>45</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>289</v>
+        <v>689</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="H53" s="7">
         <v>103</v>
@@ -8116,13 +8140,13 @@
         <v>101727</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="M53" s="7">
         <v>218</v>
@@ -8131,13 +8155,13 @@
         <v>225454</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>491</v>
+        <v>694</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8176,13 @@
         <v>307397</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>689</v>
+        <v>192</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -8167,13 +8191,13 @@
         <v>230852</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="M54" s="7">
         <v>514</v>
@@ -8182,13 +8206,13 @@
         <v>538249</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>584</v>
+        <v>702</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8227,13 @@
         <v>392361</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="H55" s="7">
         <v>273</v>
@@ -8218,13 +8242,13 @@
         <v>278864</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8233,13 +8257,13 @@
         <v>671225</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8278,13 @@
         <v>530689</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="H56" s="7">
         <v>350</v>
@@ -8269,13 +8293,13 @@
         <v>367929</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="M56" s="7">
         <v>840</v>
@@ -8284,13 +8308,13 @@
         <v>898618</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,7 +8370,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A746C24-24CF-4F94-B268-42B785F5D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEB505F-41AA-4480-88E7-AB65E5BAAEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6145FA5A-1A46-4BC7-92E7-717DC3760FD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33478092-E83C-42CF-91EC-2D57E6CA424D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="723">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -93,2116 +93,2119 @@
     <t>7,35%</t>
   </si>
   <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ED650-EFA5-4067-8DA3-22F94A5E7BB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2B85A7-0BF1-49CA-BA65-5CC464D96B88}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3537,13 +3540,13 @@
         <v>47895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3552,13 +3555,13 @@
         <v>120645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3617,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3629,13 @@
         <v>17761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3641,13 +3644,13 @@
         <v>11408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3656,13 +3659,13 @@
         <v>29169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3680,13 @@
         <v>14506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3692,13 +3695,13 @@
         <v>5038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3707,13 +3710,13 @@
         <v>19544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3731,13 @@
         <v>38849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -3743,13 +3746,13 @@
         <v>33727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -3758,13 +3761,13 @@
         <v>72576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3782,13 @@
         <v>40386</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3812,10 +3815,10 @@
         <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3833,13 @@
         <v>157116</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3845,13 +3848,13 @@
         <v>98035</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
@@ -3860,13 +3863,13 @@
         <v>255151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,7 +3925,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3934,13 +3937,13 @@
         <v>2166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3949,13 +3952,13 @@
         <v>8745</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3964,10 +3967,10 @@
         <v>10910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>160</v>
@@ -4326,10 +4329,10 @@
         <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4347,13 @@
         <v>22822</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4359,13 +4362,13 @@
         <v>11268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -4374,13 +4377,13 @@
         <v>34090</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4398,13 @@
         <v>22797</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -4410,13 +4413,13 @@
         <v>11595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -4425,13 +4428,13 @@
         <v>34392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4449,13 @@
         <v>66677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -4461,13 +4464,13 @@
         <v>28260</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>86</v>
@@ -4476,13 +4479,13 @@
         <v>94937</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,7 +4541,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4550,13 +4553,13 @@
         <v>10496</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4565,13 +4568,13 @@
         <v>5090</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -4580,13 +4583,13 @@
         <v>15586</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4604,13 @@
         <v>11421</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -4616,7 +4619,7 @@
         <v>8381</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>251</v>
@@ -4637,7 +4640,7 @@
         <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4655,13 @@
         <v>41711</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -4667,13 +4670,13 @@
         <v>29005</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -4682,13 +4685,13 @@
         <v>70717</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4706,13 @@
         <v>53871</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H43" s="7">
         <v>38</v>
@@ -4718,13 +4721,13 @@
         <v>40742</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4733,13 +4736,13 @@
         <v>94613</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4757,13 @@
         <v>153557</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H44" s="7">
         <v>93</v>
@@ -4769,13 +4772,13 @@
         <v>97897</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>231</v>
@@ -4784,13 +4787,13 @@
         <v>251455</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4849,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4858,13 +4861,13 @@
         <v>13477</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -4873,13 +4876,13 @@
         <v>8592</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4888,7 +4891,7 @@
         <v>22068</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>290</v>
@@ -4927,10 +4930,10 @@
         <v>295</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -4939,13 +4942,13 @@
         <v>24676</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4963,13 @@
         <v>58039</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -5166,13 +5169,13 @@
         <v>59544</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>40</v>
@@ -5181,13 +5184,13 @@
         <v>42872</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M52" s="7">
         <v>97</v>
@@ -5196,13 +5199,13 @@
         <v>102416</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5220,13 @@
         <v>66341</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -5232,13 +5235,13 @@
         <v>39618</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="M53" s="7">
         <v>96</v>
@@ -5247,13 +5250,13 @@
         <v>105959</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5271,13 @@
         <v>223367</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="H54" s="7">
         <v>150</v>
@@ -5283,13 +5286,13 @@
         <v>163052</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M54" s="7">
         <v>360</v>
@@ -5298,13 +5301,13 @@
         <v>386419</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,7 +5349,7 @@
         <v>547</v>
       </c>
       <c r="N55" s="7">
-        <v>577887</v>
+        <v>577888</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>355</v>
@@ -5388,10 +5391,10 @@
         <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>1099</v>
@@ -5400,13 +5403,13 @@
         <v>1184663</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5451,7 @@
         <v>2199</v>
       </c>
       <c r="N57" s="7">
-        <v>2357344</v>
+        <v>2357345</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>62</v>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5486,7 +5489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5E4825-2F84-4AC4-8DEE-E878CBE8F678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90757A27-F41B-4F44-8A7D-642041395CD2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5503,7 +5506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5610,13 +5613,13 @@
         <v>15394</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5625,13 +5628,13 @@
         <v>10627</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5643,10 +5646,10 @@
         <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,7 +5664,7 @@
         <v>19543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>377</v>
@@ -5691,13 +5694,13 @@
         <v>30078</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5715,13 @@
         <v>22985</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5727,13 +5730,13 @@
         <v>14491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5742,13 +5745,13 @@
         <v>37477</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5766,13 @@
         <v>19851</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5781,10 +5784,10 @@
         <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5793,13 +5796,13 @@
         <v>31617</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5817,13 @@
         <v>58392</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -5829,13 +5832,13 @@
         <v>53556</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -5844,13 +5847,13 @@
         <v>111948</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5921,13 @@
         <v>12982</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -5933,13 +5936,13 @@
         <v>16600</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5948,10 +5951,10 @@
         <v>29582</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>40</v>
@@ -5969,13 +5972,13 @@
         <v>14682</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5984,13 +5987,13 @@
         <v>12417</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5999,13 +6002,13 @@
         <v>27099</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6023,13 @@
         <v>36248</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -6035,13 +6038,13 @@
         <v>19337</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -6050,13 +6053,13 @@
         <v>55584</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6074,13 @@
         <v>42504</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6086,13 +6089,13 @@
         <v>19022</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -6101,13 +6104,13 @@
         <v>61525</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6125,13 @@
         <v>63882</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6137,13 +6140,13 @@
         <v>46305</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -6152,13 +6155,13 @@
         <v>110187</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6229,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6241,13 +6244,13 @@
         <v>2743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6256,13 +6259,13 @@
         <v>6120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6280,13 @@
         <v>5635</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6292,13 +6295,13 @@
         <v>3833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6307,13 +6310,13 @@
         <v>9468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6331,13 @@
         <v>27946</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6346,10 +6349,10 @@
         <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -6358,13 +6361,13 @@
         <v>49168</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6382,13 @@
         <v>47064</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -6394,13 +6397,13 @@
         <v>37720</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -6409,13 +6412,13 @@
         <v>84785</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6433,13 @@
         <v>42362</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -6445,13 +6448,13 @@
         <v>18814</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -6460,13 +6463,13 @@
         <v>61176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6525,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6534,13 +6537,13 @@
         <v>3830</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6549,13 +6552,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -6564,13 +6567,13 @@
         <v>10439</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,10 +6588,10 @@
         <v>8289</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>498</v>
@@ -6618,10 +6621,10 @@
         <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6639,13 @@
         <v>8393</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>244</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6651,13 +6654,13 @@
         <v>9651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6666,10 +6669,10 @@
         <v>18044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>510</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>511</v>
@@ -6690,10 +6693,10 @@
         <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6717,13 +6720,13 @@
         <v>25079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,10 +6741,10 @@
         <v>78796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>521</v>
@@ -6830,7 +6833,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6842,13 +6845,13 @@
         <v>3112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>528</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>33</v>
+        <v>500</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6857,13 +6860,13 @@
         <v>1749</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>344</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6872,13 +6875,13 @@
         <v>4861</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6896,13 @@
         <v>5467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6908,13 +6911,13 @@
         <v>5352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6923,13 +6926,13 @@
         <v>10819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6947,13 @@
         <v>24068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>540</v>
+        <v>429</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -6959,13 +6962,13 @@
         <v>18013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6974,13 +6977,13 @@
         <v>42081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6998,13 @@
         <v>36326</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7010,13 +7013,13 @@
         <v>19699</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M31" s="7">
         <v>57</v>
@@ -7025,13 +7028,13 @@
         <v>56025</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7049,13 @@
         <v>11957</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -7061,10 +7064,10 @@
         <v>10604</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>562</v>
@@ -7150,13 +7153,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7165,13 +7168,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7180,13 +7183,13 @@
         <v>1884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7204,13 @@
         <v>14243</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>572</v>
+        <v>451</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>303</v>
+        <v>573</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -7216,13 +7219,13 @@
         <v>17629</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M35" s="7">
         <v>32</v>
@@ -7231,13 +7234,13 @@
         <v>31872</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7255,13 @@
         <v>29563</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>97</v>
+        <v>580</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7267,13 +7270,13 @@
         <v>21806</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -7282,13 +7285,13 @@
         <v>51369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7306,13 @@
         <v>32532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>138</v>
+        <v>589</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -7318,13 +7321,13 @@
         <v>23649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7333,13 +7336,13 @@
         <v>56181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7357,13 @@
         <v>30154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7369,13 +7372,13 @@
         <v>11611</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>597</v>
+        <v>177</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M38" s="7">
         <v>40</v>
@@ -7384,13 +7387,13 @@
         <v>41765</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,7 +7449,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7458,13 +7461,13 @@
         <v>26297</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>604</v>
+        <v>28</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -7473,13 +7476,13 @@
         <v>14733</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -7488,13 +7491,13 @@
         <v>41031</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>328</v>
+        <v>611</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7512,13 @@
         <v>42633</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>377</v>
+        <v>612</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -7524,13 +7527,13 @@
         <v>39321</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>613</v>
+        <v>160</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M41" s="7">
         <v>78</v>
@@ -7539,13 +7542,13 @@
         <v>81954</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7563,13 @@
         <v>103307</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H42" s="7">
         <v>74</v>
@@ -7575,13 +7578,13 @@
         <v>74225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M42" s="7">
         <v>161</v>
@@ -7590,13 +7593,13 @@
         <v>177532</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7614,13 @@
         <v>68009</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>629</v>
+        <v>391</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>488</v>
+        <v>630</v>
       </c>
       <c r="H43" s="7">
         <v>63</v>
@@ -7626,13 +7629,13 @@
         <v>68986</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M43" s="7">
         <v>124</v>
@@ -7641,13 +7644,13 @@
         <v>136995</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7665,13 @@
         <v>119680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -7677,13 +7680,13 @@
         <v>87600</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
@@ -7692,13 +7695,13 @@
         <v>207280</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,7 +7757,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7766,13 +7769,13 @@
         <v>2146</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7781,13 +7784,13 @@
         <v>3865</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>339</v>
+        <v>650</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7796,13 +7799,13 @@
         <v>6010</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>649</v>
+        <v>243</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7820,13 @@
         <v>13233</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>72</v>
+        <v>653</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -7832,13 +7835,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M47" s="7">
         <v>23</v>
@@ -7850,10 +7853,10 @@
         <v>208</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>657</v>
+        <v>69</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>395</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7871,13 @@
         <v>54889</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H48" s="7">
         <v>50</v>
@@ -7883,13 +7886,13 @@
         <v>52105</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M48" s="7">
         <v>103</v>
@@ -7898,13 +7901,13 @@
         <v>106994</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>262</v>
+        <v>666</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7922,13 @@
         <v>133202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H49" s="7">
         <v>85</v>
@@ -7934,13 +7937,13 @@
         <v>85816</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>669</v>
+        <v>604</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>670</v>
+        <v>100</v>
       </c>
       <c r="M49" s="7">
         <v>213</v>
@@ -7949,13 +7952,13 @@
         <v>219017</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +7973,13 @@
         <v>125467</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H50" s="7">
         <v>82</v>
@@ -7985,13 +7988,13 @@
         <v>88905</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M50" s="7">
         <v>201</v>
@@ -8000,13 +8003,13 @@
         <v>214372</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>224</v>
+        <v>682</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8077,13 @@
         <v>68148</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -8089,13 +8092,13 @@
         <v>57800</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>686</v>
+        <v>332</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M52" s="7">
         <v>117</v>
@@ -8104,13 +8107,13 @@
         <v>125948</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>286</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8128,13 @@
         <v>123726</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>45</v>
+        <v>692</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="H53" s="7">
         <v>103</v>
@@ -8140,13 +8143,13 @@
         <v>101727</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="M53" s="7">
         <v>218</v>
@@ -8155,13 +8158,13 @@
         <v>225454</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>695</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>696</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8179,13 @@
         <v>307397</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>697</v>
+        <v>378</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>192</v>
+        <v>698</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -8191,13 +8194,13 @@
         <v>230852</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M54" s="7">
         <v>514</v>
@@ -8206,13 +8209,13 @@
         <v>538249</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,7 +8236,7 @@
         <v>706</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="H55" s="7">
         <v>273</v>
@@ -8242,13 +8245,13 @@
         <v>278864</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8257,13 +8260,13 @@
         <v>671225</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8281,13 @@
         <v>530689</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H56" s="7">
         <v>350</v>
@@ -8293,13 +8296,13 @@
         <v>367929</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M56" s="7">
         <v>840</v>
@@ -8308,13 +8311,13 @@
         <v>898618</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,7 +8373,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
